--- a/data files/Purchase Order/NARINDRA-ORDER FORM.xlsx
+++ b/data files/Purchase Order/NARINDRA-ORDER FORM.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\BS file manager\BS-order-manager\data files\Purchase Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F455C9F-473C-4AE8-BAF6-0D2B71CE76DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998D793C-B812-49E1-A8FE-6094BF3E5084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3360" windowWidth="17304" windowHeight="8880" xr2:uid="{9447D7AB-E676-4DC0-B48E-C182C0CECF48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9447D7AB-E676-4DC0-B48E-C182C0CECF48}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>To,</t>
   </si>
@@ -126,12 +117,6 @@
     </r>
   </si>
   <si>
-    <t>29/06/24</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Balaji Surgicals</t>
   </si>
   <si>
@@ -163,6 +148,9 @@
   </si>
   <si>
     <t xml:space="preserve">   Unit</t>
+  </si>
+  <si>
+    <t>21-01-2025</t>
   </si>
 </sst>
 </file>
@@ -408,7 +396,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -434,6 +421,7 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,98 +788,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4383F3FA-F61D-490F-AC29-B641B13BA040}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
-    <col min="2" max="2" width="60.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="21"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="31" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="22"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="25"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="29" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>27</v>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -900,7 +888,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -909,7 +897,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -918,14 +906,14 @@
       <c r="D11" s="5"/>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
@@ -934,7 +922,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>4</v>
       </c>
@@ -943,24 +931,24 @@
       <c r="D14" s="5"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="D15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>1</v>
       </c>
@@ -968,14 +956,14 @@
         <v>11</v>
       </c>
       <c r="C16" s="16">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>2</v>
       </c>
@@ -983,29 +971,27 @@
         <v>5</v>
       </c>
       <c r="C17" s="16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>3</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="C18" s="16"/>
       <c r="D18" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>4</v>
       </c>
@@ -1020,235 +1006,213 @@
       </c>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>5</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="C20" s="16"/>
       <c r="D20" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>6</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="C21" s="16"/>
       <c r="D21" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>7</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>28</v>
+      <c r="C22" s="16">
+        <v>12</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>8</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="C23" s="16"/>
       <c r="D23" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>9</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>28</v>
+      <c r="C24" s="16">
+        <v>10</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>10</v>
       </c>
       <c r="B25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="C25" s="16"/>
       <c r="D25" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>11</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>28</v>
+      <c r="C26" s="16">
+        <v>10</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>12</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="C27" s="16"/>
       <c r="D27" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>13</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="C28" s="16"/>
       <c r="D28" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>14</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>28</v>
+      <c r="C29" s="16">
+        <v>1</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>15</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="16">
-        <v>2</v>
-      </c>
+      <c r="C30" s="16"/>
       <c r="D30" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>16</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="C31" s="16"/>
       <c r="D31" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>17</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="C32" s="16"/>
       <c r="D32" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <v>18</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="C33" s="16"/>
       <c r="D33" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <v>19</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>28</v>
-      </c>
+      <c r="C34" s="16"/>
       <c r="D34" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>10</v>
       </c>
@@ -1270,7 +1234,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
